--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  ABASTOS  HERRADURA   JULIO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  ABASTOS  HERRADURA   JULIO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="REMISIONES   ABRIL  2022" sheetId="4" r:id="rId4"/>
     <sheet name="  REMISIONES   MAYO   2022   " sheetId="5" r:id="rId5"/>
     <sheet name="  REMISIONES   JUNIO   2022   " sheetId="6" r:id="rId6"/>
-    <sheet name="Hoja1" sheetId="7" r:id="rId7"/>
+    <sheet name="  REMISIONES   JULIO    2022   " sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="33">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -174,6 +175,9 @@
   </si>
   <si>
     <t>CREMERIA</t>
+  </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS         DE   JULIO      2 0 2 2</t>
   </si>
 </sst>
 </file>
@@ -1422,6 +1426,117 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="16006765"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="16054392"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -7986,8 +8101,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9108,11 +9223,15 @@
       <c r="E44" s="23">
         <v>268</v>
       </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
+      <c r="F44" s="66">
+        <v>44746</v>
+      </c>
+      <c r="G44" s="67">
+        <v>268</v>
+      </c>
       <c r="H44" s="21">
         <f t="shared" si="0"/>
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -9312,8 +9431,8 @@
       <c r="E52" s="23">
         <v>190</v>
       </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
       <c r="H52" s="21">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -9516,8 +9635,8 @@
       <c r="E60" s="23">
         <v>203</v>
       </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="25"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="67"/>
       <c r="H60" s="21">
         <f t="shared" si="0"/>
         <v>203</v>
@@ -9564,8 +9683,8 @@
       <c r="E62" s="23">
         <v>8322</v>
       </c>
-      <c r="F62" s="24"/>
-      <c r="G62" s="25"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="67"/>
       <c r="H62" s="21">
         <f t="shared" si="0"/>
         <v>8322</v>
@@ -9638,8 +9757,8 @@
       <c r="E65" s="23">
         <v>26728</v>
       </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="25"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="67"/>
       <c r="H65" s="21">
         <f t="shared" si="0"/>
         <v>26728</v>
@@ -9660,8 +9779,8 @@
       <c r="E66" s="23">
         <v>10510</v>
       </c>
-      <c r="F66" s="24"/>
-      <c r="G66" s="25"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="67"/>
       <c r="H66" s="21">
         <f t="shared" si="0"/>
         <v>10510</v>
@@ -9746,11 +9865,11 @@
       <c r="F72" s="49"/>
       <c r="G72" s="49">
         <f>SUM(G4:G71)</f>
-        <v>508930</v>
+        <v>509198</v>
       </c>
       <c r="H72" s="50">
         <f>SUM(H4:H71)</f>
-        <v>46221</v>
+        <v>45953</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -9794,7 +9913,7 @@
       <c r="D76" s="2"/>
       <c r="E76" s="72">
         <f>E72-G72</f>
-        <v>46221</v>
+        <v>45953</v>
       </c>
       <c r="F76" s="73"/>
       <c r="G76" s="74"/>
@@ -9934,6 +10053,1354 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:I89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="62" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="18" style="65" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15">
+        <v>321</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21">
+        <f t="shared" ref="H4:H71" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15">
+        <v>322</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15">
+        <f t="shared" ref="B6:B66" si="1">B5+1</f>
+        <v>323</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="15">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>326</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>327</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>329</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
+        <f t="shared" si="1"/>
+        <v>331</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15">
+        <f t="shared" si="1"/>
+        <v>334</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>337</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>339</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>341</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>342</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>343</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>344</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15">
+        <f t="shared" si="1"/>
+        <v>346</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15">
+        <f t="shared" si="1"/>
+        <v>347</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15">
+        <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15">
+        <f t="shared" si="1"/>
+        <v>351</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="34">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="34">
+        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="34">
+        <f t="shared" si="1"/>
+        <v>354</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="34">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="34">
+        <f t="shared" si="1"/>
+        <v>356</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="34">
+        <f t="shared" si="1"/>
+        <v>357</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="34">
+        <f t="shared" si="1"/>
+        <v>358</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15">
+        <f t="shared" si="1"/>
+        <v>359</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15">
+        <f t="shared" si="1"/>
+        <v>361</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15">
+        <f t="shared" si="1"/>
+        <v>362</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15">
+        <f t="shared" si="1"/>
+        <v>363</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15">
+        <f t="shared" si="1"/>
+        <v>366</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15">
+        <f t="shared" si="1"/>
+        <v>367</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15">
+        <f t="shared" si="1"/>
+        <v>369</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15">
+        <f t="shared" si="1"/>
+        <v>371</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15">
+        <f t="shared" si="1"/>
+        <v>372</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15">
+        <f t="shared" si="1"/>
+        <v>373</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15">
+        <f t="shared" si="1"/>
+        <v>374</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15">
+        <f t="shared" si="1"/>
+        <v>376</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15">
+        <f t="shared" si="1"/>
+        <v>378</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15">
+        <f t="shared" si="1"/>
+        <v>381</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="15">
+        <f t="shared" si="1"/>
+        <v>382</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="15">
+        <f t="shared" si="1"/>
+        <v>383</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="39"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="43">
+        <v>0</v>
+      </c>
+      <c r="F71" s="44"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="47"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="49">
+        <f>SUM(E4:E71)</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49">
+        <f>SUM(G4:G71)</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="50">
+        <f>SUM(H4:H71)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="47"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B74" s="47"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="52"/>
+      <c r="G74" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="54"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="47"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="72">
+        <f>E72-G72</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="73"/>
+      <c r="G76" s="74"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="47"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="53"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B78" s="47"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="47"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="53"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="57"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="59"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="47"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="53"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="47"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="47"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="53"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="47"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="53"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="47"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="47"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="53"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="47"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="47"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="53"/>
+      <c r="I89" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E78:G78"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  ABASTOS  HERRADURA   JULIO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  ABASTOS  HERRADURA   JULIO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="34">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>REMISIONES    POR     CREDITOS         DE   JULIO      2 0 2 2</t>
+  </si>
+  <si>
+    <t>9-Jul-22--12-Jul-22</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -711,6 +714,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1825,25 +1832,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2591,12 +2598,12 @@
       <c r="B45" s="47"/>
       <c r="C45" s="48"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="72">
+      <c r="E45" s="74">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="74"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="76"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2612,11 +2619,11 @@
       <c r="B47" s="47"/>
       <c r="C47" s="48"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="75" t="s">
+      <c r="E47" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2758,25 +2765,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3801,12 +3808,12 @@
       <c r="B55" s="47"/>
       <c r="C55" s="48"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="72">
+      <c r="E55" s="74">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="73"/>
-      <c r="G55" s="74"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="76"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3822,11 +3829,11 @@
       <c r="B57" s="47"/>
       <c r="C57" s="48"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="75" t="s">
+      <c r="E57" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3968,25 +3975,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4933,12 +4940,12 @@
       <c r="B52" s="47"/>
       <c r="C52" s="48"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="72">
+      <c r="E52" s="74">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="73"/>
-      <c r="G52" s="74"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="76"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4954,11 +4961,11 @@
       <c r="B54" s="47"/>
       <c r="C54" s="48"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="75" t="s">
+      <c r="E54" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -5100,25 +5107,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6434,12 +6441,12 @@
       <c r="B63" s="47"/>
       <c r="C63" s="48"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="72">
+      <c r="E63" s="74">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="73"/>
-      <c r="G63" s="74"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="76"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -6455,11 +6462,11 @@
       <c r="B65" s="47"/>
       <c r="C65" s="48"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="75" t="s">
+      <c r="E65" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -6601,25 +6608,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7953,12 +7960,12 @@
       <c r="B57" s="47"/>
       <c r="C57" s="48"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="72">
+      <c r="E57" s="74">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="73"/>
-      <c r="G57" s="74"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="76"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -7974,11 +7981,11 @@
       <c r="B59" s="47"/>
       <c r="C59" s="48"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="75" t="s">
+      <c r="E59" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -8101,8 +8108,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8121,25 +8128,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9431,11 +9438,15 @@
       <c r="E52" s="23">
         <v>190</v>
       </c>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="F52" s="66">
+        <v>44746</v>
+      </c>
+      <c r="G52" s="67">
+        <v>190</v>
+      </c>
       <c r="H52" s="21">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9635,11 +9646,15 @@
       <c r="E60" s="23">
         <v>203</v>
       </c>
-      <c r="F60" s="66"/>
-      <c r="G60" s="67"/>
+      <c r="F60" s="66">
+        <v>44746</v>
+      </c>
+      <c r="G60" s="67">
+        <v>203</v>
+      </c>
       <c r="H60" s="21">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9683,11 +9698,15 @@
       <c r="E62" s="23">
         <v>8322</v>
       </c>
-      <c r="F62" s="66"/>
-      <c r="G62" s="67"/>
+      <c r="F62" s="66">
+        <v>44746</v>
+      </c>
+      <c r="G62" s="67">
+        <v>8322</v>
+      </c>
       <c r="H62" s="21">
         <f t="shared" si="0"/>
-        <v>8322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9742,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
         <v>44745</v>
       </c>
@@ -9757,11 +9776,16 @@
       <c r="E65" s="23">
         <v>26728</v>
       </c>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="21">
-        <f t="shared" si="0"/>
-        <v>26728</v>
+      <c r="F65" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="67">
+        <f>16000+3000</f>
+        <v>19000</v>
+      </c>
+      <c r="H65" s="68">
+        <f t="shared" si="0"/>
+        <v>7728</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9779,11 +9803,15 @@
       <c r="E66" s="23">
         <v>10510</v>
       </c>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
+      <c r="F66" s="66">
+        <v>44747</v>
+      </c>
+      <c r="G66" s="67">
+        <v>10510</v>
+      </c>
       <c r="H66" s="21">
         <f t="shared" si="0"/>
-        <v>10510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9865,11 +9893,11 @@
       <c r="F72" s="49"/>
       <c r="G72" s="49">
         <f>SUM(G4:G71)</f>
-        <v>509198</v>
+        <v>547423</v>
       </c>
       <c r="H72" s="50">
         <f>SUM(H4:H71)</f>
-        <v>45953</v>
+        <v>7728</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -9911,12 +9939,12 @@
       <c r="B76" s="47"/>
       <c r="C76" s="48"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="72">
+      <c r="E76" s="74">
         <f>E72-G72</f>
-        <v>45953</v>
-      </c>
-      <c r="F76" s="73"/>
-      <c r="G76" s="74"/>
+        <v>7728</v>
+      </c>
+      <c r="F76" s="75"/>
+      <c r="G76" s="76"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -9932,11 +9960,11 @@
       <c r="B78" s="47"/>
       <c r="C78" s="48"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="75" t="s">
+      <c r="E78" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="75"/>
-      <c r="G78" s="75"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -10058,8 +10086,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10078,25 +10106,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10127,15 +10155,25 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="14">
+        <v>44747</v>
+      </c>
       <c r="B4" s="15">
         <v>321</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="18">
+        <v>7750</v>
+      </c>
+      <c r="F4" s="19">
+        <v>44750</v>
+      </c>
+      <c r="G4" s="20">
+        <v>7750</v>
+      </c>
       <c r="H4" s="21">
         <f t="shared" ref="H4:H71" si="0">E4-G4</f>
         <v>0</v>
@@ -10143,284 +10181,434 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14">
+        <v>44748</v>
+      </c>
       <c r="B5" s="15">
         <v>322</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="23">
+        <v>197</v>
+      </c>
       <c r="F5" s="24"/>
       <c r="G5" s="25"/>
       <c r="H5" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14">
+        <v>44750</v>
+      </c>
       <c r="B6" s="15">
         <f t="shared" ref="B6:B66" si="1">B5+1</f>
         <v>323</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="D6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="23">
+        <v>6048</v>
+      </c>
+      <c r="F6" s="24">
+        <v>44751</v>
+      </c>
+      <c r="G6" s="25">
+        <v>6048</v>
+      </c>
       <c r="H6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="26">
+        <v>44750</v>
+      </c>
       <c r="B7" s="15">
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="23">
+        <v>5996</v>
+      </c>
+      <c r="F7" s="24">
+        <v>44751</v>
+      </c>
+      <c r="G7" s="25">
+        <v>5996</v>
+      </c>
       <c r="H7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14">
+        <v>44750</v>
+      </c>
       <c r="B8" s="15">
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="23">
+        <v>181</v>
+      </c>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
       <c r="H8" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14">
+        <v>44751</v>
+      </c>
       <c r="B9" s="15">
         <f t="shared" si="1"/>
         <v>326</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="23">
+        <v>7208</v>
+      </c>
+      <c r="F9" s="24">
+        <v>44752</v>
+      </c>
+      <c r="G9" s="25">
+        <v>7208</v>
+      </c>
       <c r="H9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>44751</v>
+      </c>
       <c r="B10" s="15">
         <f t="shared" si="1"/>
         <v>327</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="23">
+        <v>6742</v>
+      </c>
+      <c r="F10" s="24">
+        <v>44752</v>
+      </c>
+      <c r="G10" s="25">
+        <v>6742</v>
+      </c>
       <c r="H10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14">
+        <v>44751</v>
+      </c>
       <c r="B11" s="15">
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="D11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="23">
+        <v>7364</v>
+      </c>
+      <c r="F11" s="24">
+        <v>44752</v>
+      </c>
+      <c r="G11" s="25">
+        <v>7364</v>
+      </c>
       <c r="H11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14">
+        <v>44752</v>
+      </c>
       <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>329</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="23">
+        <v>6552</v>
+      </c>
+      <c r="F12" s="24">
+        <v>44753</v>
+      </c>
+      <c r="G12" s="25">
+        <v>6552</v>
+      </c>
       <c r="H12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>44752</v>
+      </c>
       <c r="B13" s="15">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
       <c r="C13" s="30"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="23">
+        <v>14308</v>
+      </c>
+      <c r="F13" s="24">
+        <v>44754</v>
+      </c>
+      <c r="G13" s="25">
+        <v>14308</v>
+      </c>
       <c r="H13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>44752</v>
+      </c>
       <c r="B14" s="15">
         <f t="shared" si="1"/>
         <v>331</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="D14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="23">
+        <v>7308</v>
+      </c>
+      <c r="F14" s="24">
+        <v>44753</v>
+      </c>
+      <c r="G14" s="25">
+        <v>7308</v>
+      </c>
       <c r="H14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14">
+        <v>44753</v>
+      </c>
       <c r="B15" s="15">
         <f t="shared" si="1"/>
         <v>332</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="23">
+        <v>210</v>
+      </c>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
       <c r="H15" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="14">
+        <v>44753</v>
+      </c>
       <c r="B16" s="15">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="23">
+        <v>6948</v>
+      </c>
+      <c r="F16" s="24">
+        <v>44754</v>
+      </c>
+      <c r="G16" s="25">
+        <v>6948</v>
+      </c>
       <c r="H16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>44754</v>
+      </c>
       <c r="B17" s="15">
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="23"/>
+      <c r="D17" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="23">
+        <v>10299</v>
+      </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
       <c r="H17" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10299</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>44754</v>
+      </c>
       <c r="B18" s="15">
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="23">
+        <v>11100</v>
+      </c>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
       <c r="H18" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14">
+        <v>44754</v>
+      </c>
       <c r="B19" s="15">
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="23">
+        <v>14790</v>
+      </c>
+      <c r="F19" s="24">
+        <v>44754</v>
+      </c>
+      <c r="G19" s="25">
+        <v>10000</v>
+      </c>
       <c r="H19" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>44754</v>
+      </c>
       <c r="B20" s="15">
         <f t="shared" si="1"/>
         <v>337</v>
       </c>
       <c r="C20" s="29"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
+      <c r="D20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="23">
+        <v>6763</v>
+      </c>
+      <c r="F20" s="24">
+        <v>44755</v>
+      </c>
+      <c r="G20" s="25">
+        <v>6763</v>
+      </c>
       <c r="H20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14">
+        <v>44755</v>
+      </c>
       <c r="B21" s="15">
         <f t="shared" si="1"/>
         <v>338</v>
       </c>
       <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="23"/>
+      <c r="D21" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="23">
+        <v>2310</v>
+      </c>
       <c r="F21" s="24"/>
       <c r="G21" s="25"/>
       <c r="H21" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>44755</v>
+      </c>
       <c r="B22" s="15">
         <f t="shared" si="1"/>
         <v>339</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="27"/>
+      <c r="D22" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25"/>
@@ -11207,16 +11395,16 @@
       <c r="D72" s="2"/>
       <c r="E72" s="49">
         <f>SUM(E4:E71)</f>
-        <v>0</v>
+        <v>122074</v>
       </c>
       <c r="F72" s="49"/>
       <c r="G72" s="49">
         <f>SUM(G4:G71)</f>
-        <v>0</v>
+        <v>92987</v>
       </c>
       <c r="H72" s="50">
         <f>SUM(H4:H71)</f>
-        <v>0</v>
+        <v>29087</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -11258,12 +11446,12 @@
       <c r="B76" s="47"/>
       <c r="C76" s="48"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="72">
+      <c r="E76" s="74">
         <f>E72-G72</f>
-        <v>0</v>
-      </c>
-      <c r="F76" s="73"/>
-      <c r="G76" s="74"/>
+        <v>29087</v>
+      </c>
+      <c r="F76" s="75"/>
+      <c r="G76" s="76"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -11279,11 +11467,11 @@
       <c r="B78" s="47"/>
       <c r="C78" s="48"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="75" t="s">
+      <c r="E78" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="75"/>
-      <c r="G78" s="75"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  ABASTOS  HERRADURA   JULIO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  ABASTOS  HERRADURA   JULIO   2022.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="37">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -180,7 +180,16 @@
     <t>REMISIONES    POR     CREDITOS         DE   JULIO      2 0 2 2</t>
   </si>
   <si>
-    <t>9-Jul-22--12-Jul-22</t>
+    <t>12-Jul-22---14-Jul-22</t>
+  </si>
+  <si>
+    <t>9-Jul-22--12-Jul-22--14-Jul-22--15-Jul-22</t>
+  </si>
+  <si>
+    <t>PACO</t>
+  </si>
+  <si>
+    <t>15-Jul-22--16-Jul-22</t>
   </si>
 </sst>
 </file>
@@ -563,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,7 +723,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -742,6 +750,10 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1832,25 +1844,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2598,12 +2610,12 @@
       <c r="B45" s="47"/>
       <c r="C45" s="48"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="74">
+      <c r="E45" s="73">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="75"/>
-      <c r="G45" s="76"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="75"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2619,11 +2631,11 @@
       <c r="B47" s="47"/>
       <c r="C47" s="48"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="77" t="s">
+      <c r="E47" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2765,25 +2777,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3808,12 +3820,12 @@
       <c r="B55" s="47"/>
       <c r="C55" s="48"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="74">
+      <c r="E55" s="73">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="75"/>
-      <c r="G55" s="76"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3829,11 +3841,11 @@
       <c r="B57" s="47"/>
       <c r="C57" s="48"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="77" t="s">
+      <c r="E57" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3975,25 +3987,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4940,12 +4952,12 @@
       <c r="B52" s="47"/>
       <c r="C52" s="48"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="74">
+      <c r="E52" s="73">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="75"/>
-      <c r="G52" s="76"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="75"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4961,11 +4973,11 @@
       <c r="B54" s="47"/>
       <c r="C54" s="48"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="77" t="s">
+      <c r="E54" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -5107,25 +5119,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6441,12 +6453,12 @@
       <c r="B63" s="47"/>
       <c r="C63" s="48"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="74">
+      <c r="E63" s="73">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="75"/>
-      <c r="G63" s="76"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="75"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -6462,11 +6474,11 @@
       <c r="B65" s="47"/>
       <c r="C65" s="48"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="77" t="s">
+      <c r="E65" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -6608,25 +6620,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7960,12 +7972,12 @@
       <c r="B57" s="47"/>
       <c r="C57" s="48"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="74">
+      <c r="E57" s="73">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="75"/>
-      <c r="G57" s="76"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="75"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -7981,11 +7993,11 @@
       <c r="B59" s="47"/>
       <c r="C59" s="48"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="77" t="s">
+      <c r="E59" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -8108,8 +8120,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8128,25 +8140,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9761,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
         <v>44745</v>
       </c>
@@ -9776,16 +9788,16 @@
       <c r="E65" s="23">
         <v>26728</v>
       </c>
-      <c r="F65" s="69" t="s">
-        <v>33</v>
+      <c r="F65" s="68" t="s">
+        <v>34</v>
       </c>
       <c r="G65" s="67">
-        <f>16000+3000</f>
-        <v>19000</v>
-      </c>
-      <c r="H65" s="68">
-        <f t="shared" si="0"/>
-        <v>7728</v>
+        <f>16000+3000+4000+3728</f>
+        <v>26728</v>
+      </c>
+      <c r="H65" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9893,11 +9905,11 @@
       <c r="F72" s="49"/>
       <c r="G72" s="49">
         <f>SUM(G4:G71)</f>
-        <v>547423</v>
+        <v>555151</v>
       </c>
       <c r="H72" s="50">
         <f>SUM(H4:H71)</f>
-        <v>7728</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -9939,12 +9951,12 @@
       <c r="B76" s="47"/>
       <c r="C76" s="48"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="74">
+      <c r="E76" s="73">
         <f>E72-G72</f>
-        <v>7728</v>
-      </c>
-      <c r="F76" s="75"/>
-      <c r="G76" s="76"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="74"/>
+      <c r="G76" s="75"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -9960,11 +9972,11 @@
       <c r="B78" s="47"/>
       <c r="C78" s="48"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="77" t="s">
+      <c r="E78" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="77"/>
-      <c r="G78" s="77"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -10086,8 +10098,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10106,25 +10118,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10194,11 +10206,15 @@
       <c r="E5" s="23">
         <v>197</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="24">
+        <v>44757</v>
+      </c>
+      <c r="G5" s="25">
+        <v>197</v>
+      </c>
       <c r="H5" s="21">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -10268,11 +10284,15 @@
       <c r="E8" s="23">
         <v>181</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="24">
+        <v>44757</v>
+      </c>
+      <c r="G8" s="25">
+        <v>181</v>
+      </c>
       <c r="H8" s="21">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10446,11 +10466,15 @@
       <c r="E15" s="23">
         <v>210</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="24">
+        <v>44757</v>
+      </c>
+      <c r="G15" s="25">
+        <v>210</v>
+      </c>
       <c r="H15" s="21">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -10494,11 +10518,15 @@
       <c r="E17" s="23">
         <v>10299</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="F17" s="24">
+        <v>44756</v>
+      </c>
+      <c r="G17" s="25">
+        <v>10299</v>
+      </c>
       <c r="H17" s="21">
         <f t="shared" si="0"/>
-        <v>10299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -10523,7 +10551,7 @@
         <v>11100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>44754</v>
       </c>
@@ -10538,15 +10566,16 @@
       <c r="E19" s="23">
         <v>14790</v>
       </c>
-      <c r="F19" s="24">
-        <v>44754</v>
+      <c r="F19" s="77" t="s">
+        <v>33</v>
       </c>
       <c r="G19" s="25">
-        <v>10000</v>
+        <f>10000+4790</f>
+        <v>14790</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="0"/>
-        <v>4790</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -10609,188 +10638,281 @@
       <c r="D22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
+      <c r="E22" s="23">
+        <v>5616</v>
+      </c>
+      <c r="F22" s="24">
+        <v>44757</v>
+      </c>
+      <c r="G22" s="25">
+        <v>5616</v>
+      </c>
       <c r="H22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>44756</v>
+      </c>
       <c r="B23" s="15">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
       <c r="C23" s="29"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="23">
+        <v>10997</v>
+      </c>
+      <c r="F23" s="24">
+        <v>44757</v>
+      </c>
+      <c r="G23" s="25">
+        <v>10997</v>
+      </c>
       <c r="H23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>44756</v>
+      </c>
       <c r="B24" s="15">
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="23">
+        <v>11977</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="25">
+        <f>3000+8977</f>
+        <v>11977</v>
+      </c>
       <c r="H24" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14">
+        <v>44756</v>
+      </c>
       <c r="B25" s="15">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="23">
+        <v>7068</v>
+      </c>
+      <c r="F25" s="24">
+        <v>44757</v>
+      </c>
+      <c r="G25" s="25">
+        <v>7068</v>
+      </c>
       <c r="H25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="14">
+        <v>44757</v>
+      </c>
       <c r="B26" s="15">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
+      <c r="D26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="23">
+        <v>12083</v>
+      </c>
+      <c r="F26" s="24">
+        <v>44758</v>
+      </c>
+      <c r="G26" s="25">
+        <v>12083</v>
+      </c>
       <c r="H26" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14">
+        <v>44757</v>
+      </c>
       <c r="B27" s="15">
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
       <c r="C27" s="29"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="23">
+        <v>3240</v>
+      </c>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14">
+        <v>44757</v>
+      </c>
       <c r="B28" s="15">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
+      <c r="D28" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="23">
+        <v>393</v>
+      </c>
+      <c r="F28" s="24">
+        <v>44758</v>
+      </c>
+      <c r="G28" s="25">
+        <v>393</v>
+      </c>
       <c r="H28" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14">
+        <v>44757</v>
+      </c>
       <c r="B29" s="15">
         <f t="shared" si="1"/>
         <v>346</v>
       </c>
       <c r="C29" s="29"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="23">
+        <v>6852</v>
+      </c>
       <c r="F29" s="24"/>
       <c r="G29" s="25"/>
       <c r="H29" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14">
+        <v>44757</v>
+      </c>
       <c r="B30" s="15">
         <f t="shared" si="1"/>
         <v>347</v>
       </c>
       <c r="C30" s="29"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="23"/>
+      <c r="D30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="23">
+        <v>11871</v>
+      </c>
       <c r="F30" s="24"/>
       <c r="G30" s="25"/>
       <c r="H30" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11871</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14">
+        <v>44758</v>
+      </c>
       <c r="B31" s="15">
         <f t="shared" si="1"/>
         <v>348</v>
       </c>
       <c r="C31" s="29"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="23"/>
+      <c r="D31" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="23">
+        <v>244</v>
+      </c>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
       <c r="H31" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14">
+        <v>44758</v>
+      </c>
       <c r="B32" s="15">
         <f t="shared" si="1"/>
         <v>349</v>
       </c>
       <c r="C32" s="29"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="23"/>
+      <c r="D32" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="23">
+        <v>12539</v>
+      </c>
       <c r="F32" s="24"/>
       <c r="G32" s="25"/>
       <c r="H32" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12539</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14">
+        <v>44758</v>
+      </c>
       <c r="B33" s="15">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="C33" s="29"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
+      <c r="D33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="23">
+        <v>18750</v>
+      </c>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
       <c r="H33" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18750</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -11395,16 +11517,16 @@
       <c r="D72" s="2"/>
       <c r="E72" s="49">
         <f>SUM(E4:E71)</f>
-        <v>122074</v>
+        <v>223704</v>
       </c>
       <c r="F72" s="49"/>
       <c r="G72" s="49">
         <f>SUM(G4:G71)</f>
-        <v>92987</v>
+        <v>156798</v>
       </c>
       <c r="H72" s="50">
         <f>SUM(H4:H71)</f>
-        <v>29087</v>
+        <v>66906</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -11446,12 +11568,12 @@
       <c r="B76" s="47"/>
       <c r="C76" s="48"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="74">
+      <c r="E76" s="73">
         <f>E72-G72</f>
-        <v>29087</v>
-      </c>
-      <c r="F76" s="75"/>
-      <c r="G76" s="76"/>
+        <v>66906</v>
+      </c>
+      <c r="F76" s="74"/>
+      <c r="G76" s="75"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -11467,11 +11589,11 @@
       <c r="B78" s="47"/>
       <c r="C78" s="48"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="77" t="s">
+      <c r="E78" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="77"/>
-      <c r="G78" s="77"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  ABASTOS  HERRADURA   JULIO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  ABASTOS  HERRADURA   JULIO   2022.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="41">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>15-Jul-22--16-Jul-22</t>
+  </si>
+  <si>
+    <t>17-Jul-22--19-Jul-22</t>
+  </si>
+  <si>
+    <t>20-Jul-22--21-Jul-22--22-Jul-22</t>
+  </si>
+  <si>
+    <t>23-Jul-22--24-Jul-22</t>
+  </si>
+  <si>
+    <t>22-Jul-22---23-Jul-22--24-Jul-22</t>
   </si>
 </sst>
 </file>
@@ -726,6 +738,10 @@
     <xf numFmtId="165" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,10 +766,6 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1844,25 +1856,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2610,12 +2622,12 @@
       <c r="B45" s="47"/>
       <c r="C45" s="48"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="73">
+      <c r="E45" s="75">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="74"/>
-      <c r="G45" s="75"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="77"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2631,11 +2643,11 @@
       <c r="B47" s="47"/>
       <c r="C47" s="48"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="76" t="s">
+      <c r="E47" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2777,25 +2789,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3820,12 +3832,12 @@
       <c r="B55" s="47"/>
       <c r="C55" s="48"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="73">
+      <c r="E55" s="75">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="77"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3841,11 +3853,11 @@
       <c r="B57" s="47"/>
       <c r="C57" s="48"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="76" t="s">
+      <c r="E57" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3987,25 +3999,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4952,12 +4964,12 @@
       <c r="B52" s="47"/>
       <c r="C52" s="48"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="73">
+      <c r="E52" s="75">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="74"/>
-      <c r="G52" s="75"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="77"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4973,11 +4985,11 @@
       <c r="B54" s="47"/>
       <c r="C54" s="48"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="76" t="s">
+      <c r="E54" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -5119,25 +5131,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6453,12 +6465,12 @@
       <c r="B63" s="47"/>
       <c r="C63" s="48"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="73">
+      <c r="E63" s="75">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="74"/>
-      <c r="G63" s="75"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="77"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -6474,11 +6486,11 @@
       <c r="B65" s="47"/>
       <c r="C65" s="48"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="76" t="s">
+      <c r="E65" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -6620,25 +6632,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7972,12 +7984,12 @@
       <c r="B57" s="47"/>
       <c r="C57" s="48"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="73">
+      <c r="E57" s="75">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="74"/>
-      <c r="G57" s="75"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="77"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -7993,11 +8005,11 @@
       <c r="B59" s="47"/>
       <c r="C59" s="48"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="76" t="s">
+      <c r="E59" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -8140,25 +8152,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9795,7 +9807,7 @@
         <f>16000+3000+4000+3728</f>
         <v>26728</v>
       </c>
-      <c r="H65" s="78">
+      <c r="H65" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9951,12 +9963,12 @@
       <c r="B76" s="47"/>
       <c r="C76" s="48"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="73">
+      <c r="E76" s="75">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="77"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -9972,11 +9984,11 @@
       <c r="B78" s="47"/>
       <c r="C78" s="48"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="76" t="s">
+      <c r="E78" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="78"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -10098,8 +10110,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10118,25 +10130,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10544,11 +10556,15 @@
       <c r="E18" s="23">
         <v>11100</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="F18" s="24">
+        <v>44759</v>
+      </c>
+      <c r="G18" s="25">
+        <v>11100</v>
+      </c>
       <c r="H18" s="21">
         <f t="shared" si="0"/>
-        <v>11100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -10566,7 +10582,7 @@
       <c r="E19" s="23">
         <v>14790</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="69" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="25">
@@ -10619,11 +10635,15 @@
       <c r="E21" s="23">
         <v>2310</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+      <c r="F21" s="24">
+        <v>44759</v>
+      </c>
+      <c r="G21" s="25">
+        <v>2310</v>
+      </c>
       <c r="H21" s="21">
         <f t="shared" si="0"/>
-        <v>2310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -10693,7 +10713,7 @@
       <c r="E24" s="23">
         <v>11977</v>
       </c>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="69" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="25">
@@ -10772,11 +10792,15 @@
       <c r="E27" s="23">
         <v>3240</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
+      <c r="F27" s="24">
+        <v>44759</v>
+      </c>
+      <c r="G27" s="25">
+        <v>3240</v>
+      </c>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
-        <v>3240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -10820,14 +10844,18 @@
       <c r="E29" s="23">
         <v>6852</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
+      <c r="F29" s="24">
+        <v>44759</v>
+      </c>
+      <c r="G29" s="25">
+        <v>6852</v>
+      </c>
       <c r="H29" s="21">
         <f t="shared" si="0"/>
-        <v>6852</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>44757</v>
       </c>
@@ -10842,11 +10870,16 @@
       <c r="E30" s="23">
         <v>11871</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
+      <c r="F30" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="25">
+        <f>8000+3871</f>
+        <v>11871</v>
+      </c>
       <c r="H30" s="21">
         <f t="shared" si="0"/>
-        <v>11871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -10886,14 +10919,18 @@
       <c r="E32" s="23">
         <v>12539</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
+      <c r="F32" s="24">
+        <v>44761</v>
+      </c>
+      <c r="G32" s="25">
+        <v>12539</v>
+      </c>
       <c r="H32" s="21">
         <f t="shared" si="0"/>
-        <v>12539</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>44758</v>
       </c>
@@ -10908,379 +10945,588 @@
       <c r="E33" s="23">
         <v>18750</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
+      <c r="F33" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="25">
+        <f>7500+5000+6250</f>
+        <v>18750</v>
+      </c>
       <c r="H33" s="21">
         <f t="shared" si="0"/>
-        <v>18750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14">
+        <v>44759</v>
+      </c>
       <c r="B34" s="15">
         <f t="shared" si="1"/>
         <v>351</v>
       </c>
       <c r="C34" s="29"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
+      <c r="D34" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="23">
+        <v>8223</v>
+      </c>
+      <c r="F34" s="24">
+        <v>44760</v>
+      </c>
+      <c r="G34" s="25">
+        <v>8223</v>
+      </c>
       <c r="H34" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
+      <c r="A35" s="31">
+        <v>44759</v>
+      </c>
       <c r="B35" s="34">
         <f t="shared" si="1"/>
         <v>352</v>
       </c>
       <c r="C35" s="32"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
+      <c r="D35" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="23">
+        <v>2138</v>
+      </c>
+      <c r="F35" s="24">
+        <v>44760</v>
+      </c>
+      <c r="G35" s="25">
+        <v>2138</v>
+      </c>
       <c r="H35" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
+      <c r="A36" s="31">
+        <v>44760</v>
+      </c>
       <c r="B36" s="34">
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
       <c r="C36" s="32"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
+      <c r="D36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="23">
+        <v>8833</v>
+      </c>
+      <c r="F36" s="24">
+        <v>44761</v>
+      </c>
+      <c r="G36" s="25">
+        <v>8833</v>
+      </c>
       <c r="H36" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
+      <c r="A37" s="31">
+        <v>44761</v>
+      </c>
       <c r="B37" s="34">
         <f t="shared" si="1"/>
         <v>354</v>
       </c>
       <c r="C37" s="32"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
+      <c r="D37" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="23">
+        <v>6856</v>
+      </c>
+      <c r="F37" s="24">
+        <v>44763</v>
+      </c>
+      <c r="G37" s="25">
+        <v>6856</v>
+      </c>
       <c r="H37" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
+      <c r="A38" s="31">
+        <v>44761</v>
+      </c>
       <c r="B38" s="34">
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
       <c r="C38" s="32"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
+      <c r="D38" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="23">
+        <v>6039</v>
+      </c>
+      <c r="F38" s="24">
+        <v>44762</v>
+      </c>
+      <c r="G38" s="25">
+        <v>6039</v>
+      </c>
       <c r="H38" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
+      <c r="A39" s="31">
+        <v>44761</v>
+      </c>
       <c r="B39" s="34">
         <f t="shared" si="1"/>
         <v>356</v>
       </c>
       <c r="C39" s="32"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
+      <c r="D39" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="23">
+        <v>2379</v>
+      </c>
+      <c r="F39" s="24">
+        <v>44763</v>
+      </c>
+      <c r="G39" s="25">
+        <v>2379</v>
+      </c>
       <c r="H39" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
+      <c r="A40" s="31">
+        <v>44762</v>
+      </c>
       <c r="B40" s="34">
         <f t="shared" si="1"/>
         <v>357</v>
       </c>
       <c r="C40" s="32"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
+      <c r="D40" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="23">
+        <v>6173</v>
+      </c>
+      <c r="F40" s="24">
+        <v>44763</v>
+      </c>
+      <c r="G40" s="25">
+        <v>6173</v>
+      </c>
       <c r="H40" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
+      <c r="A41" s="31">
+        <v>44763</v>
+      </c>
       <c r="B41" s="34">
         <f t="shared" si="1"/>
         <v>358</v>
       </c>
       <c r="C41" s="32"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
+      <c r="D41" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="23">
+        <v>5966</v>
+      </c>
+      <c r="F41" s="24">
+        <v>44765</v>
+      </c>
+      <c r="G41" s="25">
+        <v>5966</v>
+      </c>
       <c r="H41" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14">
+        <v>44763</v>
+      </c>
       <c r="B42" s="15">
         <f t="shared" si="1"/>
         <v>359</v>
       </c>
       <c r="C42" s="29"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
+      <c r="D42" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="23">
+        <v>5679</v>
+      </c>
+      <c r="F42" s="24">
+        <v>44764</v>
+      </c>
+      <c r="G42" s="25">
+        <v>5679</v>
+      </c>
       <c r="H42" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+    <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>44764</v>
+      </c>
       <c r="B43" s="15">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="C43" s="29"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="25"/>
+      <c r="D43" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="23">
+        <v>35866</v>
+      </c>
+      <c r="F43" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="25">
+        <f>3000+28000</f>
+        <v>31000</v>
+      </c>
       <c r="H43" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>44764</v>
+      </c>
       <c r="B44" s="15">
         <f t="shared" si="1"/>
         <v>361</v>
       </c>
       <c r="C44" s="29"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
+      <c r="D44" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="23">
+        <v>21117</v>
+      </c>
+      <c r="F44" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="25">
+        <f>3936+8000+9181</f>
+        <v>21117</v>
+      </c>
       <c r="H44" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="14">
+        <v>44764</v>
+      </c>
       <c r="B45" s="15">
         <f t="shared" si="1"/>
         <v>362</v>
       </c>
       <c r="C45" s="29"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
+      <c r="D45" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="23">
+        <v>6584</v>
+      </c>
+      <c r="F45" s="24">
+        <v>44766</v>
+      </c>
+      <c r="G45" s="25">
+        <v>6584</v>
+      </c>
       <c r="H45" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14">
+        <v>44764</v>
+      </c>
       <c r="B46" s="15">
         <f t="shared" si="1"/>
         <v>363</v>
       </c>
       <c r="C46" s="29"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
+      <c r="D46" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="23">
+        <v>2180</v>
+      </c>
+      <c r="F46" s="24">
+        <v>44765</v>
+      </c>
+      <c r="G46" s="25">
+        <v>2180</v>
+      </c>
       <c r="H46" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14">
+        <v>44765</v>
+      </c>
       <c r="B47" s="15">
         <f t="shared" si="1"/>
         <v>364</v>
       </c>
       <c r="C47" s="37"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="23"/>
+      <c r="D47" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="23">
+        <v>206</v>
+      </c>
       <c r="F47" s="24"/>
       <c r="G47" s="25"/>
       <c r="H47" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14">
+        <v>44765</v>
+      </c>
       <c r="B48" s="15">
         <f t="shared" si="1"/>
         <v>365</v>
       </c>
       <c r="C48" s="38"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
+      <c r="D48" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="23">
+        <v>2330</v>
+      </c>
+      <c r="F48" s="24">
+        <v>44766</v>
+      </c>
+      <c r="G48" s="25">
+        <v>2330</v>
+      </c>
       <c r="H48" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="14">
+        <v>44765</v>
+      </c>
       <c r="B49" s="15">
         <f t="shared" si="1"/>
         <v>366</v>
       </c>
       <c r="C49" s="29"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
+      <c r="D49" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="23">
+        <v>9248</v>
+      </c>
+      <c r="F49" s="24">
+        <v>44765</v>
+      </c>
+      <c r="G49" s="25">
+        <v>9248</v>
+      </c>
       <c r="H49" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14">
+        <v>44765</v>
+      </c>
       <c r="B50" s="15">
         <f t="shared" si="1"/>
         <v>367</v>
       </c>
       <c r="C50" s="29"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
+      <c r="D50" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="23">
+        <v>6808</v>
+      </c>
+      <c r="F50" s="24">
+        <v>44766</v>
+      </c>
+      <c r="G50" s="25">
+        <v>6808</v>
+      </c>
       <c r="H50" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="14">
+        <v>44766</v>
+      </c>
       <c r="B51" s="15">
         <f t="shared" si="1"/>
         <v>368</v>
       </c>
       <c r="C51" s="29"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="23"/>
+      <c r="D51" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="23">
+        <v>6300</v>
+      </c>
       <c r="F51" s="24"/>
       <c r="G51" s="25"/>
       <c r="H51" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="14">
+        <v>44766</v>
+      </c>
       <c r="B52" s="15">
         <f t="shared" si="1"/>
         <v>369</v>
       </c>
       <c r="C52" s="29"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="23"/>
+      <c r="D52" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="23">
+        <v>7413</v>
+      </c>
       <c r="F52" s="24"/>
       <c r="G52" s="25"/>
       <c r="H52" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7413</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="14">
+        <v>44766</v>
+      </c>
       <c r="B53" s="15">
         <f t="shared" si="1"/>
         <v>370</v>
       </c>
       <c r="C53" s="29"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="23"/>
+      <c r="D53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="23">
+        <v>9152</v>
+      </c>
       <c r="F53" s="24"/>
       <c r="G53" s="25"/>
       <c r="H53" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9152</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="14">
+        <v>44766</v>
+      </c>
       <c r="B54" s="15">
         <f t="shared" si="1"/>
         <v>371</v>
       </c>
       <c r="C54" s="29"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="23"/>
+      <c r="D54" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="23">
+        <v>13142</v>
+      </c>
       <c r="F54" s="24"/>
       <c r="G54" s="25"/>
       <c r="H54" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13142</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+      <c r="A55" s="14">
+        <v>44766</v>
+      </c>
       <c r="B55" s="15">
         <f t="shared" si="1"/>
         <v>372</v>
       </c>
       <c r="C55" s="29"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="23"/>
+      <c r="D55" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="23">
+        <v>819</v>
+      </c>
       <c r="F55" s="24"/>
       <c r="G55" s="25"/>
       <c r="H55" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>819</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="14">
+        <v>44766</v>
+      </c>
       <c r="B56" s="15">
         <f t="shared" si="1"/>
         <v>373</v>
       </c>
       <c r="C56" s="29"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="23"/>
+      <c r="D56" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="23">
+        <v>2520</v>
+      </c>
       <c r="F56" s="24"/>
       <c r="G56" s="25"/>
       <c r="H56" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11517,16 +11763,16 @@
       <c r="D72" s="2"/>
       <c r="E72" s="49">
         <f>SUM(E4:E71)</f>
-        <v>223704</v>
+        <v>399675</v>
       </c>
       <c r="F72" s="49"/>
       <c r="G72" s="49">
         <f>SUM(G4:G71)</f>
-        <v>156798</v>
+        <v>355013</v>
       </c>
       <c r="H72" s="50">
         <f>SUM(H4:H71)</f>
-        <v>66906</v>
+        <v>44662</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -11568,12 +11814,12 @@
       <c r="B76" s="47"/>
       <c r="C76" s="48"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="73">
+      <c r="E76" s="75">
         <f>E72-G72</f>
-        <v>66906</v>
-      </c>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
+        <v>44662</v>
+      </c>
+      <c r="F76" s="76"/>
+      <c r="G76" s="77"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -11589,11 +11835,11 @@
       <c r="B78" s="47"/>
       <c r="C78" s="48"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="76" t="s">
+      <c r="E78" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="78"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  ABASTOS  HERRADURA   JULIO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  ABASTOS  HERRADURA   JULIO   2022.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="45">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -198,10 +198,22 @@
     <t>20-Jul-22--21-Jul-22--22-Jul-22</t>
   </si>
   <si>
-    <t>23-Jul-22--24-Jul-22</t>
+    <t>22-Jul-22---23-Jul-22--24-Jul-22</t>
   </si>
   <si>
-    <t>22-Jul-22---23-Jul-22--24-Jul-22</t>
+    <t>23-Jul-22--24-Jul-22--26-Jul-22</t>
+  </si>
+  <si>
+    <t>JOSE LUIS</t>
+  </si>
+  <si>
+    <t>26-Jul-22--28-Jul-22</t>
+  </si>
+  <si>
+    <t>28-Jul-22--29-Jul-22</t>
+  </si>
+  <si>
+    <t>30-Jul-22--31-Jul-22</t>
   </si>
 </sst>
 </file>
@@ -1463,13 +1475,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1516,13 +1528,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10108,10 +10120,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10199,7 +10211,7 @@
         <v>7750</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H71" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H82" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -10234,7 +10246,7 @@
         <v>44750</v>
       </c>
       <c r="B6" s="15">
-        <f t="shared" ref="B6:B66" si="1">B5+1</f>
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
         <v>323</v>
       </c>
       <c r="C6" s="16"/>
@@ -10897,11 +10909,15 @@
       <c r="E31" s="23">
         <v>244</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="F31" s="24">
+        <v>44768</v>
+      </c>
+      <c r="G31" s="25">
+        <v>244</v>
+      </c>
       <c r="H31" s="21">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -11191,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>44764</v>
       </c>
@@ -11207,15 +11223,15 @@
         <v>35866</v>
       </c>
       <c r="F43" s="69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G43" s="25">
-        <f>3000+28000</f>
-        <v>31000</v>
+        <f>3000+28000+4866</f>
+        <v>35866</v>
       </c>
       <c r="H43" s="21">
         <f t="shared" si="0"/>
-        <v>4866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -11234,7 +11250,7 @@
         <v>21117</v>
       </c>
       <c r="F44" s="69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" s="25">
         <f>3936+8000+9181</f>
@@ -11312,11 +11328,15 @@
       <c r="E47" s="23">
         <v>206</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
+      <c r="F47" s="24">
+        <v>44768</v>
+      </c>
+      <c r="G47" s="25">
+        <v>206</v>
+      </c>
       <c r="H47" s="21">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11412,11 +11432,15 @@
       <c r="E51" s="23">
         <v>6300</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
+      <c r="F51" s="24">
+        <v>44768</v>
+      </c>
+      <c r="G51" s="25">
+        <v>6300</v>
+      </c>
       <c r="H51" s="21">
         <f t="shared" si="0"/>
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11434,11 +11458,15 @@
       <c r="E52" s="23">
         <v>7413</v>
       </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
+      <c r="F52" s="24">
+        <v>44768</v>
+      </c>
+      <c r="G52" s="25">
+        <v>7413</v>
+      </c>
       <c r="H52" s="21">
         <f t="shared" si="0"/>
-        <v>7413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11456,11 +11484,15 @@
       <c r="E53" s="23">
         <v>9152</v>
       </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="25"/>
+      <c r="F53" s="24">
+        <v>44767</v>
+      </c>
+      <c r="G53" s="25">
+        <v>9152</v>
+      </c>
       <c r="H53" s="21">
         <f t="shared" si="0"/>
-        <v>9152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11478,11 +11510,15 @@
       <c r="E54" s="23">
         <v>13142</v>
       </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
+      <c r="F54" s="24">
+        <v>44768</v>
+      </c>
+      <c r="G54" s="25">
+        <v>13142</v>
+      </c>
       <c r="H54" s="21">
         <f t="shared" si="0"/>
-        <v>13142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11500,11 +11536,15 @@
       <c r="E55" s="23">
         <v>819</v>
       </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
+      <c r="F55" s="24">
+        <v>44767</v>
+      </c>
+      <c r="G55" s="25">
+        <v>819</v>
+      </c>
       <c r="H55" s="21">
         <f t="shared" si="0"/>
-        <v>819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11522,409 +11562,712 @@
       <c r="E56" s="23">
         <v>2520</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="25"/>
+      <c r="F56" s="24">
+        <v>44768</v>
+      </c>
+      <c r="G56" s="25">
+        <v>2520</v>
+      </c>
       <c r="H56" s="21">
         <f t="shared" si="0"/>
-        <v>2520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14">
+        <v>44767</v>
+      </c>
       <c r="B57" s="15">
         <f t="shared" si="1"/>
         <v>374</v>
       </c>
       <c r="C57" s="29"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="25"/>
+      <c r="D57" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="23">
+        <v>9229</v>
+      </c>
+      <c r="F57" s="24">
+        <v>44768</v>
+      </c>
+      <c r="G57" s="25">
+        <v>9229</v>
+      </c>
       <c r="H57" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="14">
+        <v>44767</v>
+      </c>
       <c r="B58" s="15">
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
       <c r="C58" s="29"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="25"/>
+      <c r="D58" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="23">
+        <v>3213</v>
+      </c>
+      <c r="F58" s="24">
+        <v>44768</v>
+      </c>
+      <c r="G58" s="25">
+        <v>3213</v>
+      </c>
       <c r="H58" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+    <row r="59" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>44768</v>
+      </c>
       <c r="B59" s="15">
         <f t="shared" si="1"/>
         <v>376</v>
       </c>
       <c r="C59" s="29"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="25"/>
+      <c r="D59" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="23">
+        <v>3710</v>
+      </c>
+      <c r="F59" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="25">
+        <f>1710+2000</f>
+        <v>3710</v>
+      </c>
       <c r="H59" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14">
+        <v>44768</v>
+      </c>
       <c r="B60" s="15">
         <f t="shared" si="1"/>
         <v>377</v>
       </c>
       <c r="C60" s="29"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="25"/>
+      <c r="D60" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="23">
+        <v>6580</v>
+      </c>
+      <c r="F60" s="24">
+        <v>44771</v>
+      </c>
+      <c r="G60" s="25">
+        <v>6580</v>
+      </c>
       <c r="H60" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="14">
+        <v>44768</v>
+      </c>
       <c r="B61" s="15">
         <f t="shared" si="1"/>
         <v>378</v>
       </c>
       <c r="C61" s="29"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="25"/>
+      <c r="D61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="23">
+        <v>9011</v>
+      </c>
+      <c r="F61" s="24">
+        <v>44769</v>
+      </c>
+      <c r="G61" s="25">
+        <v>9011</v>
+      </c>
       <c r="H61" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14">
+        <v>44768</v>
+      </c>
       <c r="B62" s="15">
         <f t="shared" si="1"/>
         <v>379</v>
       </c>
       <c r="C62" s="29"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="25"/>
+      <c r="D62" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="23">
+        <v>10572</v>
+      </c>
+      <c r="F62" s="24">
+        <v>44769</v>
+      </c>
+      <c r="G62" s="25">
+        <v>10572</v>
+      </c>
       <c r="H62" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+    <row r="63" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>44769</v>
+      </c>
       <c r="B63" s="15">
         <f t="shared" si="1"/>
         <v>380</v>
       </c>
       <c r="C63" s="29"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="25"/>
+      <c r="D63" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="23">
+        <v>4844</v>
+      </c>
+      <c r="F63" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G63" s="25">
+        <f>2800+2044</f>
+        <v>4844</v>
+      </c>
       <c r="H63" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14">
+        <v>44770</v>
+      </c>
       <c r="B64" s="15">
         <f t="shared" si="1"/>
         <v>381</v>
       </c>
       <c r="C64" s="29"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="25"/>
+      <c r="D64" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="23">
+        <v>4288</v>
+      </c>
+      <c r="F64" s="24">
+        <v>44770</v>
+      </c>
+      <c r="G64" s="25">
+        <v>4288</v>
+      </c>
       <c r="H64" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26">
+        <v>44770</v>
+      </c>
       <c r="B65" s="15">
         <f t="shared" si="1"/>
         <v>382</v>
       </c>
       <c r="C65" s="29"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="23"/>
+      <c r="D65" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="23">
+        <v>214</v>
+      </c>
       <c r="F65" s="24"/>
       <c r="G65" s="25"/>
       <c r="H65" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="26">
+        <v>44770</v>
+      </c>
       <c r="B66" s="15">
         <f t="shared" si="1"/>
         <v>383</v>
       </c>
       <c r="C66" s="29"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="25"/>
+      <c r="D66" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="23">
+        <v>2335</v>
+      </c>
+      <c r="F66" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="25">
+        <f>1335+1000</f>
+        <v>2335</v>
+      </c>
       <c r="H66" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="15"/>
+    <row r="67" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="26">
+        <v>44770</v>
+      </c>
+      <c r="B67" s="15">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
       <c r="C67" s="29"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="25"/>
+      <c r="D67" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="23">
+        <v>6964</v>
+      </c>
+      <c r="F67" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" s="25">
+        <f>4000+2964</f>
+        <v>6964</v>
+      </c>
       <c r="H67" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="15"/>
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26">
+        <v>44770</v>
+      </c>
+      <c r="B68" s="15">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
       <c r="C68" s="29"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="25"/>
+      <c r="D68" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="23">
+        <v>10894</v>
+      </c>
+      <c r="F68" s="24">
+        <v>44772</v>
+      </c>
+      <c r="G68" s="25">
+        <v>10894</v>
+      </c>
       <c r="H68" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="15"/>
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26">
+        <v>44771</v>
+      </c>
+      <c r="B69" s="15">
+        <f t="shared" si="1"/>
+        <v>386</v>
+      </c>
       <c r="C69" s="29"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="25"/>
+      <c r="D69" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="23">
+        <v>22436</v>
+      </c>
+      <c r="F69" s="24">
+        <v>44773</v>
+      </c>
+      <c r="G69" s="25">
+        <v>22436</v>
+      </c>
       <c r="H69" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="15"/>
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26">
+        <v>44771</v>
+      </c>
+      <c r="B70" s="15">
+        <f t="shared" ref="B70:B80" si="2">B69+1</f>
+        <v>387</v>
+      </c>
       <c r="C70" s="29"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="25"/>
+      <c r="D70" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="23">
+        <v>3028</v>
+      </c>
+      <c r="F70" s="24">
+        <v>44773</v>
+      </c>
+      <c r="G70" s="25">
+        <v>3028</v>
+      </c>
       <c r="H70" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="39"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="43">
-        <v>0</v>
-      </c>
-      <c r="F71" s="44"/>
-      <c r="G71" s="45"/>
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="26">
+        <v>44771</v>
+      </c>
+      <c r="B71" s="15">
+        <f t="shared" si="2"/>
+        <v>388</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="23">
+        <v>14956</v>
+      </c>
+      <c r="F71" s="24">
+        <v>44772</v>
+      </c>
+      <c r="G71" s="25">
+        <f>6000+8956</f>
+        <v>14956</v>
+      </c>
       <c r="H71" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="47"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="49">
-        <f>SUM(E4:E71)</f>
-        <v>399675</v>
-      </c>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49">
-        <f>SUM(G4:G71)</f>
-        <v>355013</v>
-      </c>
-      <c r="H72" s="50">
-        <f>SUM(H4:H71)</f>
-        <v>44662</v>
-      </c>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="47"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B74" s="47"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="54"/>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="47"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="75">
-        <f>E72-G72</f>
-        <v>44662</v>
-      </c>
-      <c r="F76" s="76"/>
-      <c r="G76" s="77"/>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="47"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="53"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B78" s="47"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="78"/>
-      <c r="G78" s="78"/>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="47"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="53"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="57"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="59"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="47"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="53"/>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="47"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
+    </row>
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26">
+        <v>44772</v>
+      </c>
+      <c r="B72" s="15">
+        <f t="shared" si="2"/>
+        <v>389</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="23">
+        <v>160</v>
+      </c>
+      <c r="F72" s="24"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="21">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26">
+        <v>44772</v>
+      </c>
+      <c r="B73" s="15">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="23">
+        <v>16909</v>
+      </c>
+      <c r="F73" s="24">
+        <v>44773</v>
+      </c>
+      <c r="G73" s="25">
+        <v>11850</v>
+      </c>
+      <c r="H73" s="21">
+        <f t="shared" si="0"/>
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26">
+        <v>44772</v>
+      </c>
+      <c r="B74" s="15">
+        <f t="shared" si="2"/>
+        <v>391</v>
+      </c>
+      <c r="C74" s="29"/>
+      <c r="D74" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="23">
+        <v>8356</v>
+      </c>
+      <c r="F74" s="24"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="21">
+        <f t="shared" si="0"/>
+        <v>8356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26">
+        <v>44773</v>
+      </c>
+      <c r="B75" s="15">
+        <f t="shared" si="2"/>
+        <v>392</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="23">
+        <v>20380</v>
+      </c>
+      <c r="F75" s="24">
+        <v>44773</v>
+      </c>
+      <c r="G75" s="25">
+        <v>2964</v>
+      </c>
+      <c r="H75" s="21">
+        <f t="shared" si="0"/>
+        <v>17416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="26">
+        <v>44773</v>
+      </c>
+      <c r="B76" s="15">
+        <f t="shared" si="2"/>
+        <v>393</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="23">
+        <v>3400</v>
+      </c>
+      <c r="F76" s="24">
+        <v>44773</v>
+      </c>
+      <c r="G76" s="25">
+        <v>3400</v>
+      </c>
+      <c r="H76" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="26">
+        <v>44773</v>
+      </c>
+      <c r="B77" s="15">
+        <f t="shared" si="2"/>
+        <v>394</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="23">
+        <v>5326</v>
+      </c>
+      <c r="F77" s="24">
+        <v>44773</v>
+      </c>
+      <c r="G77" s="25">
+        <v>3526</v>
+      </c>
+      <c r="H77" s="21">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="26">
+        <v>44773</v>
+      </c>
+      <c r="B78" s="15">
+        <f t="shared" si="2"/>
+        <v>395</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="23">
+        <v>15952</v>
+      </c>
+      <c r="F78" s="24"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="21">
+        <f t="shared" si="0"/>
+        <v>15952</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="26">
+        <v>44773</v>
+      </c>
+      <c r="B79" s="15">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="23">
+        <v>9219</v>
+      </c>
+      <c r="F79" s="24">
+        <v>44773</v>
+      </c>
+      <c r="G79" s="25">
+        <v>2803</v>
+      </c>
+      <c r="H79" s="21">
+        <f t="shared" si="0"/>
+        <v>6416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="39"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="43">
+        <v>0</v>
+      </c>
+      <c r="F82" s="44"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B83" s="47"/>
       <c r="C83" s="48"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="53"/>
+      <c r="E83" s="49">
+        <f>SUM(E4:E82)</f>
+        <v>591651</v>
+      </c>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49">
+        <f>SUM(G4:G82)</f>
+        <v>536278</v>
+      </c>
+      <c r="H83" s="50">
+        <f>SUM(H4:H82)</f>
+        <v>55373</v>
+      </c>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84" s="47"/>
       <c r="C84" s="48"/>
       <c r="D84" s="2"/>
       <c r="E84" s="51"/>
       <c r="F84" s="52"/>
       <c r="G84" s="53"/>
+      <c r="H84" s="54"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B85" s="47"/>
       <c r="C85" s="48"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="51"/>
+      <c r="E85" s="55" t="s">
+        <v>10</v>
+      </c>
       <c r="F85" s="52"/>
-      <c r="G85" s="53"/>
+      <c r="G85" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="54"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="47"/>
       <c r="C86" s="48"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="51"/>
+      <c r="E86" s="55"/>
       <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="54"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B87" s="47"/>
       <c r="C87" s="48"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="53"/>
+      <c r="E87" s="75">
+        <f>E83-G83</f>
+        <v>55373</v>
+      </c>
+      <c r="F87" s="76"/>
+      <c r="G87" s="77"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B88" s="47"/>
       <c r="C88" s="48"/>
       <c r="D88" s="2"/>
@@ -11933,21 +12276,123 @@
       <c r="G88" s="53"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B89" s="47"/>
       <c r="C89" s="48"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="53"/>
+      <c r="E89" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="78"/>
+      <c r="G89" s="78"/>
       <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="47"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="53"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="57"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="59"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="47"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="53"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="47"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="53"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="47"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="53"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="47"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="53"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="47"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="53"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="47"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="53"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="47"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="53"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="47"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="53"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="47"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="53"/>
+      <c r="I100" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E89:G89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
